--- a/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_3_constructs_and_mutants.xlsx
+++ b/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_3_constructs_and_mutants.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tperica/Box Sync/kortemmelab/home/tina/Gsp1_manuscript/Revisions/Supplementary_Files/Supplementary_File_1/excel files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62F72B-CA47-2E48-97BE-1E4F9A848400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="186">
   <si>
     <t>construct name</t>
   </si>
@@ -73,12 +79,6 @@
   </si>
   <si>
     <t>GSP1 T34L</t>
-  </si>
-  <si>
-    <t>GSP1 T34N</t>
-  </si>
-  <si>
-    <t>T34N</t>
   </si>
   <si>
     <t>GSP1 T34Q</t>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -684,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -744,6 +744,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -764,23 +790,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,6 +806,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,33 +841,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -965,19 +967,54 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:D129" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1">
-  <autoFilter ref="A2:D129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:D128" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
+  <autoFilter ref="A2:D128" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="construct name" dataDxfId="5"/>
-    <tableColumn id="2" name="Gsp1 residue number" dataDxfId="4"/>
-    <tableColumn id="3" name="Gsp1 point mutation" dataDxfId="3"/>
-    <tableColumn id="4" name="yeast strain successfully made" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="construct name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Gsp1 residue number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Gsp1 point mutation" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="yeast strain successfully made" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,14 +1341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -1320,29 +1357,29 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="46" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14" customHeight="1">
+    <row r="3" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14" customHeight="1">
+    <row r="4" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14" customHeight="1">
+    <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14" customHeight="1">
+    <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14" customHeight="1">
+    <row r="7" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14" customHeight="1">
+    <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" customHeight="1">
+    <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14" customHeight="1">
+    <row r="10" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1448,27 +1485,27 @@
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14" customHeight="1">
+    <row r="12" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14" customHeight="1">
+    <row r="13" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1490,69 +1527,69 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" customHeight="1">
+    <row r="15" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14" customHeight="1">
+    <row r="16" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14" customHeight="1">
+    <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
+    <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1560,32 +1597,32 @@
         <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14" customHeight="1">
+    <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -1594,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14" customHeight="1">
+    <row r="21" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1602,27 +1639,27 @@
         <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14" customHeight="1">
+    <row r="23" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1630,27 +1667,27 @@
         <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14" customHeight="1">
+    <row r="25" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1658,41 +1695,41 @@
         <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B26" s="2">
         <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14" customHeight="1">
+    <row r="27" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14" customHeight="1">
+    <row r="28" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -1700,46 +1737,46 @@
         <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1">
+    <row r="30" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="2">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14" customHeight="1">
+    <row r="31" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>49</v>
@@ -1748,7 +1785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14" customHeight="1">
+    <row r="32" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1756,27 +1793,27 @@
         <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2">
-        <v>101</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
+    <row r="34" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1790,7 +1827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14" customHeight="1">
+    <row r="35" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -1804,12 +1841,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14" customHeight="1">
+    <row r="36" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>58</v>
@@ -1818,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14" customHeight="1">
+    <row r="37" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -1826,32 +1863,32 @@
         <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B38" s="2">
         <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14" customHeight="1">
+    <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>63</v>
@@ -1860,7 +1897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" customHeight="1">
+    <row r="40" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -1874,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14" customHeight="1">
+    <row r="41" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14" customHeight="1">
+    <row r="42" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
@@ -1896,27 +1933,27 @@
         <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B43" s="2">
         <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14" customHeight="1">
+    <row r="44" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -1930,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14" customHeight="1">
+    <row r="45" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
@@ -1938,27 +1975,27 @@
         <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B46" s="2">
         <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14" customHeight="1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -1972,91 +2009,91 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14" customHeight="1">
+    <row r="48" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2">
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="2">
-        <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="B51" s="2">
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14" customHeight="1">
+    <row r="52" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2">
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14" customHeight="1">
+    <row r="53" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="2">
-        <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14" customHeight="1">
+    <row r="54" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2070,7 +2107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14" customHeight="1">
+    <row r="55" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
@@ -2078,41 +2115,41 @@
         <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B56" s="2">
         <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
+    <row r="57" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="2">
+        <v>115</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="2">
-        <v>112</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14" customHeight="1">
+    <row r="58" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>91</v>
       </c>
@@ -2126,12 +2163,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14" customHeight="1">
+    <row r="59" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>94</v>
@@ -2140,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14" customHeight="1">
+    <row r="60" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -2154,7 +2191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14" customHeight="1">
+    <row r="61" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>97</v>
       </c>
@@ -2168,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14" customHeight="1">
+    <row r="62" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>99</v>
       </c>
@@ -2182,12 +2219,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14" customHeight="1">
+    <row r="63" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>102</v>
@@ -2196,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14" customHeight="1">
+    <row r="64" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
@@ -2204,46 +2241,46 @@
         <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="B65" s="2">
         <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14" customHeight="1">
+    <row r="66" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="2">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="2">
-        <v>132</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14" customHeight="1">
+    <row r="67" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B67" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>108</v>
@@ -2252,7 +2289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14" customHeight="1">
+    <row r="68" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>109</v>
       </c>
@@ -2266,12 +2303,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14" customHeight="1">
+    <row r="69" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>112</v>
@@ -2280,7 +2317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
+    <row r="70" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
@@ -2294,7 +2331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14" customHeight="1">
+    <row r="71" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>115</v>
       </c>
@@ -2308,7 +2345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14" customHeight="1">
+    <row r="72" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>117</v>
       </c>
@@ -2316,27 +2353,27 @@
         <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="B73" s="2">
         <v>141</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14" customHeight="1">
+    <row r="74" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2344,15 +2381,15 @@
         <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="B75" s="2">
         <v>141</v>
@@ -2364,63 +2401,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14" customHeight="1">
+    <row r="76" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2">
         <v>141</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14" customHeight="1">
+    <row r="77" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2">
         <v>141</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14" customHeight="1">
+    <row r="78" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2">
         <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
+    <row r="79" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="2">
+        <v>143</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B79" s="2">
-        <v>141</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14" customHeight="1">
+    <row r="80" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
@@ -2434,7 +2471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14" customHeight="1">
+    <row r="81" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>129</v>
       </c>
@@ -2442,27 +2479,27 @@
         <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B82" s="2">
         <v>143</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14" customHeight="1">
+    <row r="83" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>132</v>
       </c>
@@ -2470,27 +2507,27 @@
         <v>143</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="2">
+        <v>147</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="2">
-        <v>143</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14" customHeight="1">
+    <row r="85" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>135</v>
       </c>
@@ -2504,7 +2541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14" customHeight="1">
+    <row r="86" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>137</v>
       </c>
@@ -2512,27 +2549,27 @@
         <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2">
+        <v>148</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="2">
-        <v>147</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
+    <row r="88" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>140</v>
       </c>
@@ -2540,46 +2577,46 @@
         <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="B89" s="2">
         <v>148</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14" customHeight="1">
+    <row r="90" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="2">
+        <v>154</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="2">
-        <v>148</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14" customHeight="1">
+    <row r="91" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B91" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>145</v>
@@ -2588,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14" customHeight="1">
+    <row r="92" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>146</v>
       </c>
@@ -2596,32 +2633,32 @@
         <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="8">
+        <v>169</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="2">
-        <v>157</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14" customHeight="1">
+      <c r="D93" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B94" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>150</v>
@@ -2630,63 +2667,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="48" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="14" customHeight="1">
+    <row r="95" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="2">
+        <v>180</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2">
         <v>180</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14" customHeight="1">
+    <row r="97" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B97" s="2">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="14" customHeight="1">
-      <c r="A98" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="2">
-        <v>180</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="14" customHeight="1">
+    </row>
+    <row r="98" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>155</v>
       </c>
@@ -2694,295 +2731,295 @@
         <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="14" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="B100" s="2">
         <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2">
         <v>34</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="2">
+        <v>39</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B102" s="2">
-        <v>34</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="2">
+        <v>41</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="2">
-        <v>39</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B104" s="2">
+        <v>49</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="14" customHeight="1">
-      <c r="A104" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B104" s="2">
-        <v>41</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="14" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2">
+        <v>58</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="2">
-        <v>49</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="B106" s="2">
+        <v>70</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="14" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="2">
-        <v>58</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="14" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2">
+        <v>71</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="2">
-        <v>70</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B108" s="2">
+        <v>73</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="14" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="2">
-        <v>71</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="B109" s="2">
+        <v>75</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="14" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B109" s="2">
-        <v>73</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="14" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="2">
+        <v>78</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B110" s="2">
-        <v>75</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B111" s="2">
+        <v>79</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="14" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="D111" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B111" s="2">
-        <v>78</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="14" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="B112" s="2">
         <v>79</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="14" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2">
+        <v>80</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B113" s="2">
-        <v>79</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="14" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="B114" s="2">
         <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="14" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2">
+        <v>98</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="2">
-        <v>80</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="14" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="2">
+        <v>101</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B116" s="2">
-        <v>98</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="14" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="2">
+        <v>108</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B117" s="2">
-        <v>101</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="B118" s="2">
         <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2">
         <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120" s="2">
         <v>108</v>
@@ -2991,12 +3028,12 @@
         <v>77</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2">
         <v>108</v>
@@ -3005,119 +3042,105 @@
         <v>79</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="2">
+        <v>132</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B122" s="2">
-        <v>108</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="14" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="B123" s="2">
         <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="14" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="B124" s="2">
+        <v>137</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B124" s="2">
-        <v>132</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="14" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="2">
+        <v>141</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B125" s="2">
-        <v>137</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="14" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="B126" s="2">
         <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="14" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="2">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B127" s="2">
-        <v>141</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="14" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="B128" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" s="2">
-        <v>157</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
